--- a/input/static_data/cost/season_17/player_cost_GW27.xlsx
+++ b/input/static_data/cost/season_17/player_cost_GW27.xlsx
@@ -15,6 +15,9 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>GW26</t>
   </si>
   <si>
     <t>GW27</t>
@@ -45,9 +48,6 @@
   </si>
   <si>
     <t>GW36</t>
-  </si>
-  <si>
-    <t>GW37</t>
   </si>
 </sst>
 </file>
@@ -673,37 +673,37 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C16" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D16" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E16" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F16" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G16" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H16" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I16" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J16" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K16" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L16" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="17">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L34" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="35">
@@ -1661,37 +1661,37 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C42" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D42" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E42" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F42" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G42" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H42" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I42" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J42" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K42" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L42" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="43">
@@ -2991,37 +2991,37 @@
         <v>76.0</v>
       </c>
       <c r="B77" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C77" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D77" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E77" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F77" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G77" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H77" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I77" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J77" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K77" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L77" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="78">
@@ -3029,37 +3029,37 @@
         <v>77.0</v>
       </c>
       <c r="B78" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C78" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D78" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E78" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F78" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G78" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H78" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I78" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J78" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K78" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L78" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="79">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="92">
@@ -4169,37 +4169,37 @@
         <v>107.0</v>
       </c>
       <c r="B108" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C108" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D108" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E108" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F108" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G108" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H108" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I108" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J108" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K108" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L108" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="109">
@@ -5043,37 +5043,37 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C131" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F131" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G131" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H131" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I131" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J131" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K131" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L131" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="132">
@@ -5157,37 +5157,37 @@
         <v>133.0</v>
       </c>
       <c r="B134" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C134" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D134" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E134" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F134" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G134" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H134" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I134" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J134" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K134" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L134" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="135">
@@ -5727,37 +5727,37 @@
         <v>148.0</v>
       </c>
       <c r="B149" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C149" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D149" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E149" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F149" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G149" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H149" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I149" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J149" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K149" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L149" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="150">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C187" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D187" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E187" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F187" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G187" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H187" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I187" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J187" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K187" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L187" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="188">
@@ -9413,37 +9413,37 @@
         <v>245.0</v>
       </c>
       <c r="B246" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C246" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D246" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E246" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F246" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G246" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H246" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I246" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J246" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K246" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L246" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="247">
@@ -9527,37 +9527,37 @@
         <v>248.0</v>
       </c>
       <c r="B249" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C249" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D249" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E249" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F249" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G249" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H249" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I249" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J249" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K249" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L249" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="250">
@@ -9907,37 +9907,37 @@
         <v>258.0</v>
       </c>
       <c r="B259" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C259" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D259" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E259" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F259" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G259" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H259" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I259" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J259" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K259" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L259" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="260">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C280" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D280" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E280" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F280" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G280" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H280" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I280" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J280" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K280" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L280" t="n">
-        <v>7800000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="281">
@@ -10819,37 +10819,37 @@
         <v>282.0</v>
       </c>
       <c r="B283" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C283" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D283" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E283" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F283" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G283" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H283" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I283" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J283" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K283" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L283" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="284">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C284" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D284" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E284" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F284" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G284" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H284" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I284" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J284" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K284" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L284" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="285">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C305" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D305" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E305" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F305" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G305" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H305" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I305" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J305" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K305" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L305" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="306">
@@ -11845,37 +11845,37 @@
         <v>309.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C310" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D310" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E310" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F310" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G310" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H310" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I310" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J310" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K310" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L310" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="311">
@@ -12263,37 +12263,37 @@
         <v>320.0</v>
       </c>
       <c r="B321" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C321" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D321" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E321" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F321" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G321" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H321" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I321" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J321" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K321" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L321" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="322">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C366" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D366" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E366" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F366" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G366" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H366" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I366" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J366" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K366" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L366" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="367">
@@ -14239,37 +14239,37 @@
         <v>372.0</v>
       </c>
       <c r="B373" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C373" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D373" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E373" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F373" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G373" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H373" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I373" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J373" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K373" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L373" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="374">
@@ -14315,37 +14315,37 @@
         <v>374.0</v>
       </c>
       <c r="B375" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C375" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D375" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E375" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F375" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G375" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H375" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I375" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J375" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K375" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L375" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="376">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="C387" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="D387" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="E387" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="F387" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="G387" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="H387" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="I387" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="J387" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="K387" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
       <c r="L387" t="n">
-        <v>8600000.0</v>
+        <v>8700000.0</v>
       </c>
     </row>
     <row r="388">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>7900000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="C406" t="n">
-        <v>7900000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="D406" t="n">
-        <v>7900000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="E406" t="n">
-        <v>7900000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="F406" t="n">
-        <v>7900000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="G406" t="n">
-        <v>7900000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="H406" t="n">
-        <v>7900000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="I406" t="n">
-        <v>7900000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="J406" t="n">
-        <v>7900000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="K406" t="n">
-        <v>7900000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="L406" t="n">
-        <v>7900000.0</v>
+        <v>8000000.0</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="C407" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="D407" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="F407" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="G407" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="H407" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="I407" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="J407" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="K407" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="L407" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
     </row>
     <row r="408">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="C416" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="D416" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="E416" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="F416" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="H416" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="I416" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="J416" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="K416" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="L416" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
     </row>
     <row r="417">
@@ -16101,37 +16101,37 @@
         <v>421.0</v>
       </c>
       <c r="B422" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C422" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D422" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E422" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F422" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G422" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H422" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I422" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J422" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K422" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L422" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="423">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>1.18E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="C429" t="n">
-        <v>1.18E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="D429" t="n">
-        <v>1.18E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.18E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="F429" t="n">
-        <v>1.18E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="G429" t="n">
-        <v>1.18E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="H429" t="n">
-        <v>1.18E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="I429" t="n">
-        <v>1.18E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="J429" t="n">
-        <v>1.18E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="K429" t="n">
-        <v>1.18E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="L429" t="n">
-        <v>1.18E7</v>
+        <v>1.17E7</v>
       </c>
     </row>
     <row r="430">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L453" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="454">
@@ -17545,37 +17545,37 @@
         <v>459.0</v>
       </c>
       <c r="B460" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C460" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D460" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E460" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F460" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G460" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H460" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I460" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J460" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K460" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L460" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="461">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="C482" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="D482" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="E482" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="F482" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="G482" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="H482" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="I482" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="J482" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="K482" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="L482" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
     </row>
     <row r="483">
@@ -18647,37 +18647,37 @@
         <v>488.0</v>
       </c>
       <c r="B489" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C489" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D489" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E489" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F489" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G489" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H489" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I489" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J489" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K489" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L489" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="490">
@@ -19293,37 +19293,37 @@
         <v>505.0</v>
       </c>
       <c r="B506" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C506" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D506" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E506" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F506" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G506" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H506" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I506" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J506" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K506" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L506" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="507">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C532" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D532" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E532" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F532" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G532" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H532" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I532" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J532" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K532" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L532" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="533">
@@ -20547,37 +20547,37 @@
         <v>538.0</v>
       </c>
       <c r="B539" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="C539" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="D539" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="E539" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="F539" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="G539" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="H539" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="I539" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="J539" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="K539" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="L539" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
     </row>
     <row r="540">
@@ -20737,37 +20737,37 @@
         <v>543.0</v>
       </c>
       <c r="B544" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C544" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D544" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E544" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F544" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G544" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H544" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I544" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J544" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K544" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L544" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="545">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C552" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D552" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E552" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F552" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G552" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H552" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I552" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J552" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K552" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L552" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="553">
@@ -21497,37 +21497,37 @@
         <v>563.0</v>
       </c>
       <c r="B564" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C564" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D564" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E564" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F564" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G564" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H564" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I564" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J564" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K564" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L564" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="565">
@@ -21573,37 +21573,37 @@
         <v>565.0</v>
       </c>
       <c r="B566" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C566" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D566" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E566" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F566" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G566" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H566" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I566" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J566" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K566" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L566" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="567">
@@ -21725,37 +21725,37 @@
         <v>569.0</v>
       </c>
       <c r="B570" t="n">
-        <v>7100000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C570" t="n">
-        <v>7100000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D570" t="n">
-        <v>7100000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E570" t="n">
-        <v>7100000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F570" t="n">
-        <v>7100000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G570" t="n">
-        <v>7100000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H570" t="n">
-        <v>7100000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I570" t="n">
-        <v>7100000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J570" t="n">
-        <v>7100000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K570" t="n">
-        <v>7100000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L570" t="n">
-        <v>7100000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="571">
@@ -21763,37 +21763,37 @@
         <v>570.0</v>
       </c>
       <c r="B571" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C571" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D571" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E571" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F571" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G571" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H571" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I571" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J571" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K571" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L571" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="572">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C576" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D576" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E576" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F576" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G576" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H576" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I576" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J576" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K576" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L576" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="577">
@@ -23017,37 +23017,37 @@
         <v>603.0</v>
       </c>
       <c r="B604" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C604" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D604" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E604" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F604" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G604" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H604" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I604" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J604" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K604" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L604" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="605">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="C607" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="D607" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="E607" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="F607" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="G607" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="H607" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="I607" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="J607" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="K607" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
       <c r="L607" t="n">
-        <v>1.28E7</v>
+        <v>1.29E7</v>
       </c>
     </row>
     <row r="608">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C616" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D616" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E616" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F616" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G616" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H616" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I616" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J616" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K616" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L616" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="617">
@@ -23739,37 +23739,37 @@
         <v>622.0</v>
       </c>
       <c r="B623" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C623" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D623" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E623" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F623" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G623" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H623" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I623" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J623" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K623" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L623" t="n">
-        <v>5500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="624">

--- a/input/static_data/cost/season_17/player_cost_GW27.xlsx
+++ b/input/static_data/cost/season_17/player_cost_GW27.xlsx
@@ -15,9 +15,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>GW26</t>
   </si>
   <si>
     <t>GW27</t>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>GW36</t>
+  </si>
+  <si>
+    <t>GW37</t>
   </si>
 </sst>
 </file>
@@ -673,37 +673,37 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C16" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D16" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E16" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F16" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G16" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H16" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I16" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J16" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K16" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L16" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="17">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C34" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D34" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E34" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F34" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G34" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H34" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I34" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J34" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K34" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L34" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="35">
@@ -1661,37 +1661,37 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="C42" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="K42" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="L42" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="43">
@@ -2991,37 +2991,37 @@
         <v>76.0</v>
       </c>
       <c r="B77" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C77" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D77" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E77" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F77" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G77" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H77" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I77" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J77" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K77" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L77" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="78">
@@ -3029,37 +3029,37 @@
         <v>77.0</v>
       </c>
       <c r="B78" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C78" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D78" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E78" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F78" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G78" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H78" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I78" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J78" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K78" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L78" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="79">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="92">
@@ -4169,37 +4169,37 @@
         <v>107.0</v>
       </c>
       <c r="B108" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C108" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D108" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E108" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F108" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G108" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H108" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I108" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J108" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K108" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L108" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="109">
@@ -5043,37 +5043,37 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C131" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F131" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G131" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H131" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I131" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J131" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K131" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L131" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="132">
@@ -5157,37 +5157,37 @@
         <v>133.0</v>
       </c>
       <c r="B134" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C134" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D134" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E134" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F134" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G134" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H134" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I134" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J134" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K134" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L134" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="135">
@@ -5727,37 +5727,37 @@
         <v>148.0</v>
       </c>
       <c r="B149" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C149" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D149" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E149" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F149" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G149" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H149" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I149" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J149" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K149" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L149" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="150">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C187" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D187" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E187" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F187" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G187" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H187" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I187" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J187" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K187" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L187" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="188">
@@ -9413,37 +9413,37 @@
         <v>245.0</v>
       </c>
       <c r="B246" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C246" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D246" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E246" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F246" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G246" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H246" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I246" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J246" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K246" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L246" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="247">
@@ -9527,37 +9527,37 @@
         <v>248.0</v>
       </c>
       <c r="B249" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="C249" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="D249" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="E249" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="F249" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="G249" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="H249" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="I249" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="J249" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="K249" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="L249" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="250">
@@ -9907,37 +9907,37 @@
         <v>258.0</v>
       </c>
       <c r="B259" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="C259" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="D259" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="E259" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="F259" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="G259" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="H259" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="I259" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="J259" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="K259" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
       <c r="L259" t="n">
-        <v>1.0E8</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="260">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="C280" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="D280" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="E280" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="F280" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="G280" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="H280" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="I280" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="J280" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="K280" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="L280" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
     </row>
     <row r="281">
@@ -10819,37 +10819,37 @@
         <v>282.0</v>
       </c>
       <c r="B283" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C283" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D283" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E283" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F283" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G283" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H283" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I283" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J283" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K283" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L283" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="284">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C284" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D284" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E284" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F284" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G284" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H284" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I284" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J284" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K284" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L284" t="n">
-        <v>5500000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="285">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C305" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D305" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E305" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F305" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G305" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H305" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I305" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J305" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K305" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L305" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="306">
@@ -11845,37 +11845,37 @@
         <v>309.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C310" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D310" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E310" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F310" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G310" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H310" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I310" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J310" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K310" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L310" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="311">
@@ -12263,37 +12263,37 @@
         <v>320.0</v>
       </c>
       <c r="B321" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="C321" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="D321" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="E321" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="F321" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="G321" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="H321" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="I321" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="J321" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="K321" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
       <c r="L321" t="n">
-        <v>1.0E8</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="322">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C366" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D366" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E366" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F366" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G366" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H366" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I366" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J366" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K366" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L366" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="367">
@@ -14239,37 +14239,37 @@
         <v>372.0</v>
       </c>
       <c r="B373" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C373" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D373" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E373" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F373" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G373" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H373" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I373" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J373" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K373" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L373" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="374">
@@ -14315,37 +14315,37 @@
         <v>374.0</v>
       </c>
       <c r="B375" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C375" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D375" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E375" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F375" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G375" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H375" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I375" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J375" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K375" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L375" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="376">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="C387" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="D387" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="E387" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="F387" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="G387" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="H387" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="I387" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="J387" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="K387" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="L387" t="n">
-        <v>8700000.0</v>
+        <v>8600000.0</v>
       </c>
     </row>
     <row r="388">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>8000000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="C406" t="n">
-        <v>8000000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="D406" t="n">
-        <v>8000000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="E406" t="n">
-        <v>8000000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="F406" t="n">
-        <v>8000000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="G406" t="n">
-        <v>8000000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="H406" t="n">
-        <v>8000000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="I406" t="n">
-        <v>8000000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="J406" t="n">
-        <v>8000000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="K406" t="n">
-        <v>8000000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="L406" t="n">
-        <v>8000000.0</v>
+        <v>7900000.0</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="C407" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="D407" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="F407" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="G407" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="H407" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="I407" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="J407" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="K407" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="L407" t="n">
-        <v>1.02E7</v>
+        <v>1.03E7</v>
       </c>
     </row>
     <row r="408">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="C416" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="D416" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="E416" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="F416" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="H416" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="I416" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="J416" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="K416" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="L416" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
     </row>
     <row r="417">
@@ -16101,37 +16101,37 @@
         <v>421.0</v>
       </c>
       <c r="B422" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C422" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D422" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E422" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F422" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G422" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H422" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I422" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J422" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K422" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L422" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="423">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>1.17E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="C429" t="n">
-        <v>1.17E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="D429" t="n">
-        <v>1.17E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.17E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="F429" t="n">
-        <v>1.17E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="G429" t="n">
-        <v>1.17E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="H429" t="n">
-        <v>1.17E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="I429" t="n">
-        <v>1.17E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="J429" t="n">
-        <v>1.17E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="K429" t="n">
-        <v>1.17E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="L429" t="n">
-        <v>1.17E7</v>
+        <v>1.18E7</v>
       </c>
     </row>
     <row r="430">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="454">
@@ -17545,37 +17545,37 @@
         <v>459.0</v>
       </c>
       <c r="B460" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C460" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D460" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E460" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F460" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G460" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H460" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I460" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J460" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K460" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L460" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="461">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="C482" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="D482" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="E482" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="F482" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="G482" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="H482" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="I482" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="J482" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="K482" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="L482" t="n">
-        <v>9000000.0</v>
+        <v>8900000.0</v>
       </c>
     </row>
     <row r="483">
@@ -18647,37 +18647,37 @@
         <v>488.0</v>
       </c>
       <c r="B489" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C489" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D489" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E489" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F489" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G489" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H489" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I489" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J489" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K489" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L489" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="490">
@@ -19293,37 +19293,37 @@
         <v>505.0</v>
       </c>
       <c r="B506" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C506" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D506" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E506" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F506" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G506" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H506" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I506" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J506" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K506" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L506" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="507">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C532" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D532" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E532" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F532" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G532" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H532" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I532" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J532" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K532" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L532" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="533">
@@ -20547,37 +20547,37 @@
         <v>538.0</v>
       </c>
       <c r="B539" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="C539" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="D539" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="E539" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="F539" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="G539" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="H539" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="I539" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="J539" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="K539" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="L539" t="n">
-        <v>1.03E7</v>
+        <v>1.02E7</v>
       </c>
     </row>
     <row r="540">
@@ -20737,37 +20737,37 @@
         <v>543.0</v>
       </c>
       <c r="B544" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C544" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D544" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E544" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F544" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G544" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H544" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I544" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J544" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K544" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L544" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="545">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C552" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D552" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E552" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F552" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G552" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H552" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I552" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J552" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K552" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L552" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="553">
@@ -21497,37 +21497,37 @@
         <v>563.0</v>
       </c>
       <c r="B564" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="C564" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="D564" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="E564" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="F564" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="G564" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="H564" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="I564" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="J564" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="K564" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="L564" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="565">
@@ -21573,37 +21573,37 @@
         <v>565.0</v>
       </c>
       <c r="B566" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C566" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D566" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E566" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F566" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G566" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H566" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I566" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J566" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K566" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L566" t="n">
-        <v>5300000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="567">
@@ -21725,37 +21725,37 @@
         <v>569.0</v>
       </c>
       <c r="B570" t="n">
-        <v>7400000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C570" t="n">
-        <v>7400000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D570" t="n">
-        <v>7400000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E570" t="n">
-        <v>7400000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F570" t="n">
-        <v>7400000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G570" t="n">
-        <v>7400000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H570" t="n">
-        <v>7400000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I570" t="n">
-        <v>7400000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J570" t="n">
-        <v>7400000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K570" t="n">
-        <v>7400000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L570" t="n">
-        <v>7400000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="571">
@@ -21763,37 +21763,37 @@
         <v>570.0</v>
       </c>
       <c r="B571" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C571" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D571" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E571" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F571" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G571" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H571" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I571" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J571" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K571" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L571" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="572">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C576" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D576" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E576" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F576" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G576" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H576" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I576" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J576" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K576" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L576" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="577">
@@ -23017,37 +23017,37 @@
         <v>603.0</v>
       </c>
       <c r="B604" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C604" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D604" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E604" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F604" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G604" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H604" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I604" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J604" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K604" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L604" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="605">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>1.29E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="C607" t="n">
-        <v>1.29E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="D607" t="n">
-        <v>1.29E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="E607" t="n">
-        <v>1.29E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="F607" t="n">
-        <v>1.29E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="G607" t="n">
-        <v>1.29E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="H607" t="n">
-        <v>1.29E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="I607" t="n">
-        <v>1.29E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="J607" t="n">
-        <v>1.29E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="K607" t="n">
-        <v>1.29E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="L607" t="n">
-        <v>1.29E7</v>
+        <v>1.28E7</v>
       </c>
     </row>
     <row r="608">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C616" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D616" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E616" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F616" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G616" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H616" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I616" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J616" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K616" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L616" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="617">
@@ -23739,37 +23739,37 @@
         <v>622.0</v>
       </c>
       <c r="B623" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="C623" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="D623" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="E623" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="F623" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="G623" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="H623" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="I623" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="J623" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="K623" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
       <c r="L623" t="n">
-        <v>1.0E8</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="624">
